--- a/課題9/Excel_Data3.xlsx
+++ b/課題9/Excel_Data3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\応用演習\sqlコピー\課題9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\応用演習\sql_kadai\課題9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="11325" windowHeight="12765" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="11325" windowHeight="12765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="組織・社員" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="部課目標" sheetId="5" r:id="rId5"/>
     <sheet name="顧客" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">受注!$C$1:$C$203</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -3085,7 +3088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -4153,8 +4156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X203"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X203" sqref="X203"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11011,6 +11014,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C203"/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12027,7 +12031,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
